--- a/GP_PaymentsUSA2010.xlsx
+++ b/GP_PaymentsUSA2010.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laniepreston/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Floor Kouwenberg\Documents\VU\Data Wrangling\Data-Wrangling-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{251B7460-9C94-6A47-8D6D-A0FC55CF6929}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A2177E-9F60-4BEC-84BC-4399FECE70BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13580" xr2:uid="{97CD93A8-2B41-9340-89AC-75976AA0BC71}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{97CD93A8-2B41-9340-89AC-75976AA0BC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="21">
-  <si>
-    <t>$1,000     </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
   <si>
     <t>Federal Government direct farm program payments</t>
   </si>
@@ -159,7 +156,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -175,7 +172,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,51 +468,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF0E3AB-4A12-7B41-B7E9-FAC7EE63DFE5}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.09765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="4">
+        <v>2010</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2011</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2013</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2014</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2016</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2017</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2018</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="5">
         <v>12391658</v>
@@ -526,32 +525,31 @@
       <c r="D2" s="5">
         <v>10635118</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="5">
+        <v>11003796</v>
+      </c>
       <c r="F2" s="5">
-        <v>11003796</v>
+        <v>9766845</v>
       </c>
       <c r="G2" s="5">
-        <v>9766845</v>
+        <v>10804486</v>
       </c>
       <c r="H2" s="5">
-        <v>10804486</v>
+        <v>12979676</v>
       </c>
       <c r="I2" s="5">
-        <v>12979676</v>
+        <v>11531611</v>
       </c>
       <c r="J2" s="5">
-        <v>11531611</v>
+        <v>13669010</v>
       </c>
       <c r="K2" s="5">
-        <v>13669010</v>
-      </c>
-      <c r="L2" s="5">
         <v>22420185</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5">
         <v>4809267</v>
@@ -562,104 +560,101 @@
       <c r="D3" s="5">
         <v>4687021</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="5">
+        <v>4288531</v>
+      </c>
       <c r="F3" s="5">
-        <v>4288531</v>
+        <v>18733</v>
       </c>
       <c r="G3" s="5">
-        <v>18733</v>
+        <v>-3509</v>
       </c>
       <c r="H3" s="5">
-        <v>-3509</v>
-      </c>
-      <c r="I3" s="5">
         <v>-5348</v>
       </c>
+      <c r="I3" s="1">
+        <v>818</v>
+      </c>
       <c r="J3" s="1">
-        <v>818</v>
-      </c>
-      <c r="K3" s="1">
         <v>-933</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>459927</v>
+      </c>
+      <c r="G4" s="5">
+        <v>24018</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1064</v>
+      </c>
+      <c r="I4" s="1">
+        <v>122</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-43</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5">
-        <v>459927</v>
-      </c>
-      <c r="H4" s="5">
-        <v>24018</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1064</v>
-      </c>
-      <c r="J4" s="1">
-        <v>122</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-43</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>326456</v>
+      </c>
+      <c r="I5" s="1">
+        <v>254</v>
+      </c>
+      <c r="J5" s="5">
+        <v>214562</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="5">
-        <v>326456</v>
-      </c>
-      <c r="J5" s="1">
-        <v>254</v>
-      </c>
-      <c r="K5" s="5">
-        <v>214562</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B6" s="5">
         <v>421387</v>
@@ -670,104 +665,101 @@
       <c r="D6" s="5">
         <v>41395</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5">
+        <v>206896</v>
+      </c>
       <c r="F6" s="5">
-        <v>206896</v>
+        <v>255084</v>
       </c>
       <c r="G6" s="5">
-        <v>255084</v>
-      </c>
-      <c r="H6" s="5">
         <v>13738</v>
       </c>
+      <c r="H6" s="1">
+        <v>122</v>
+      </c>
       <c r="I6" s="1">
-        <v>122</v>
+        <v>-250</v>
       </c>
       <c r="J6" s="1">
-        <v>-250</v>
-      </c>
-      <c r="K6" s="1">
         <v>-63</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>754928</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1942170</v>
+      </c>
+      <c r="I7" s="5">
+        <v>3213642</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2064825</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1921000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="5">
-        <v>754928</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1942170</v>
-      </c>
-      <c r="J7" s="5">
-        <v>3213642</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2064825</v>
-      </c>
-      <c r="L7" s="5">
-        <v>1921000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4376892</v>
+      </c>
+      <c r="H8" s="5">
+        <v>6061419</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3797083</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1109009</v>
+      </c>
+      <c r="K8" s="5">
+        <v>641000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5">
-        <v>4376892</v>
-      </c>
-      <c r="I8" s="5">
-        <v>6061419</v>
-      </c>
-      <c r="J8" s="5">
-        <v>3797083</v>
-      </c>
-      <c r="K8" s="5">
-        <v>1109009</v>
-      </c>
-      <c r="L8" s="5">
-        <v>641000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>209099</v>
@@ -778,32 +770,31 @@
       <c r="D9" s="5">
         <v>-1234</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="1">
+        <v>-839</v>
+      </c>
       <c r="F9" s="1">
-        <v>-839</v>
+        <v>-527</v>
       </c>
       <c r="G9" s="1">
-        <v>-527</v>
+        <v>-60</v>
       </c>
       <c r="H9" s="1">
-        <v>-60</v>
+        <v>-189</v>
       </c>
       <c r="I9" s="1">
-        <v>-189</v>
-      </c>
-      <c r="J9" s="1">
         <v>59</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="K9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5">
         <v>114391</v>
@@ -814,32 +805,31 @@
       <c r="D10" s="1">
         <v>-616</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1">
+      <c r="E10" s="1">
         <v>-331</v>
       </c>
+      <c r="F10" s="5">
+        <v>61894</v>
+      </c>
       <c r="G10" s="5">
-        <v>61894</v>
+        <v>154844</v>
       </c>
       <c r="H10" s="5">
-        <v>154844</v>
+        <v>165850</v>
       </c>
       <c r="I10" s="5">
-        <v>165850</v>
-      </c>
-      <c r="J10" s="5">
         <v>8459</v>
       </c>
-      <c r="K10" s="1">
+      <c r="J10" s="1">
         <v>-515</v>
       </c>
-      <c r="L10" s="5">
+      <c r="K10" s="5">
         <v>6121</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="5">
         <v>2002</v>
@@ -850,32 +840,31 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="1">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
+      <c r="F11" s="5">
+        <v>32955</v>
+      </c>
       <c r="G11" s="5">
-        <v>32955</v>
+        <v>53528</v>
       </c>
       <c r="H11" s="5">
-        <v>53528</v>
+        <v>40158</v>
       </c>
       <c r="I11" s="5">
-        <v>40158</v>
-      </c>
-      <c r="J11" s="5">
         <v>3440</v>
       </c>
-      <c r="K11" s="1">
+      <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="L11" s="5">
+      <c r="K11" s="5">
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>705</v>
@@ -884,34 +873,33 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
         <v>51660</v>
@@ -922,68 +910,66 @@
       <c r="D13" s="5">
         <v>446572</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5">
+      <c r="E13" s="5">
         <v>231704</v>
       </c>
+      <c r="F13" s="1">
+        <v>-129</v>
+      </c>
       <c r="G13" s="1">
-        <v>-129</v>
+        <v>-40</v>
       </c>
       <c r="H13" s="1">
-        <v>-40</v>
+        <v>-64</v>
       </c>
       <c r="I13" s="1">
-        <v>-64</v>
+        <v>-43</v>
       </c>
       <c r="J13" s="1">
-        <v>-43</v>
-      </c>
-      <c r="K13" s="1">
         <v>-20</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="1">
+        <v>686</v>
+      </c>
+      <c r="H14" s="5">
+        <v>10394</v>
+      </c>
+      <c r="I14" s="1">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5">
+        <v>250013</v>
+      </c>
+      <c r="K14" s="5">
+        <v>214000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1">
-        <v>686</v>
-      </c>
-      <c r="I14" s="5">
-        <v>10394</v>
-      </c>
-      <c r="J14" s="1">
-        <v>19</v>
-      </c>
-      <c r="K14" s="5">
-        <v>250013</v>
-      </c>
-      <c r="L14" s="5">
-        <v>214000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>686769</v>
@@ -994,32 +980,31 @@
       <c r="D15" s="5">
         <v>652933</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="5">
+        <v>647974</v>
+      </c>
       <c r="F15" s="5">
-        <v>647974</v>
+        <v>646399</v>
       </c>
       <c r="G15" s="5">
-        <v>646399</v>
-      </c>
-      <c r="H15" s="5">
         <v>2574</v>
       </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
       <c r="I15" s="1">
+        <v>6</v>
+      </c>
+      <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="1">
-        <v>6</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="5">
         <v>3219467</v>
@@ -1030,32 +1015,31 @@
       <c r="D16" s="5">
         <v>3695063</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="5">
+        <v>3679896</v>
+      </c>
       <c r="F16" s="5">
-        <v>3679896</v>
+        <v>3561396</v>
       </c>
       <c r="G16" s="5">
-        <v>3561396</v>
+        <v>3618928</v>
       </c>
       <c r="H16" s="5">
-        <v>3618928</v>
+        <v>3763963</v>
       </c>
       <c r="I16" s="5">
-        <v>3763963</v>
+        <v>3824171</v>
       </c>
       <c r="J16" s="5">
-        <v>3824171</v>
+        <v>3986516</v>
       </c>
       <c r="K16" s="5">
-        <v>3986516</v>
-      </c>
-      <c r="L16" s="5">
         <v>3534831</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="5">
         <v>231390</v>
@@ -1066,32 +1050,31 @@
       <c r="D17" s="5">
         <v>12266</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="5">
+        <v>7078</v>
+      </c>
       <c r="F17" s="5">
-        <v>7078</v>
+        <v>5444</v>
       </c>
       <c r="G17" s="5">
-        <v>5444</v>
+        <v>7364</v>
       </c>
       <c r="H17" s="5">
-        <v>7364</v>
+        <v>6879</v>
       </c>
       <c r="I17" s="5">
-        <v>6879</v>
-      </c>
-      <c r="J17" s="5">
         <v>1236</v>
       </c>
-      <c r="K17" s="1">
+      <c r="J17" s="1">
         <v>236</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="5">
         <v>2647915</v>
@@ -1102,68 +1085,66 @@
       <c r="D18" s="5">
         <v>1102397</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="5">
+        <v>1942908</v>
+      </c>
       <c r="F18" s="5">
-        <v>1942908</v>
+        <v>4725718</v>
       </c>
       <c r="G18" s="5">
-        <v>4725718</v>
+        <v>1800619</v>
       </c>
       <c r="H18" s="5">
-        <v>1800619</v>
+        <v>657543</v>
       </c>
       <c r="I18" s="5">
-        <v>657543</v>
+        <v>679465</v>
       </c>
       <c r="J18" s="5">
-        <v>679465</v>
+        <v>915566</v>
       </c>
       <c r="K18" s="5">
-        <v>915566</v>
-      </c>
-      <c r="L18" s="5">
         <v>1746400</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5127345</v>
+      </c>
+      <c r="K19" s="5">
+        <v>14342344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5">
-        <v>5127345</v>
-      </c>
-      <c r="L19" s="5">
-        <v>14342344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="B20" s="5">
         <v>-2395</v>
@@ -1174,26 +1155,25 @@
       <c r="D20" s="1">
         <v>-680</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="1">
+        <v>-21</v>
+      </c>
       <c r="F20" s="1">
-        <v>-21</v>
+        <v>-49</v>
       </c>
       <c r="G20" s="1">
-        <v>-49</v>
-      </c>
-      <c r="H20" s="1">
         <v>-24</v>
       </c>
+      <c r="H20" s="5">
+        <v>9259</v>
+      </c>
       <c r="I20" s="5">
-        <v>9259</v>
+        <v>3129</v>
       </c>
       <c r="J20" s="5">
-        <v>3129</v>
+        <v>2514</v>
       </c>
       <c r="K20" s="5">
-        <v>2514</v>
-      </c>
-      <c r="L20" s="5">
         <v>13189</v>
       </c>
     </row>
